--- a/BalanceSheet/MRVL_bal.xlsx
+++ b/BalanceSheet/MRVL_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>96000.0</v>
+        <v>268000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-5984000.0</v>
+        <v>268000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-33000.0</v>
+        <v>263000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>35834000.0</v>
+        <v>270000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>43361000.0</v>
+        <v>323000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>308299000.0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4895000.0</v>
+        <v>252000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>5121000.0</v>
+        <v>224000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>33204000.0</v>
+        <v>239000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-3557000.0</v>
+        <v>186000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-29143000.0</v>
+        <v>214000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>212955000.0</v>
@@ -2940,19 +2940,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-39491000.0</v>
+        <v>-650000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>444000.0</v>
+        <v>-609000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-2816000.0</v>
+        <v>-609000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>2372000.0</v>
+        <v>-606000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-777257000.0</v>
+        <v>-609000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>214492000.0</v>
